--- a/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Fomesafen/Data Sheet_A92 Fomesafen POST.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Fomesafen/Data Sheet_A92 Fomesafen POST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Fomesafen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="8_{7C2E463B-3A4A-44A7-B71A-7D03AA71627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED52E422-964D-4AD8-B2FE-9665A32AEA68}"/>
+  <xr:revisionPtr revIDLastSave="590" documentId="8_{7C2E463B-3A4A-44A7-B71A-7D03AA71627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F1A4E08-4385-4127-8518-8E58DFDFCD6A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4F63E78-1954-4528-8CDF-71AD70FA9EA6}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,12 +593,8 @@
       <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">

--- a/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Fomesafen/Data Sheet_A92 Fomesafen POST.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Fomesafen/Data Sheet_A92 Fomesafen POST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Fomesafen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="590" documentId="8_{7C2E463B-3A4A-44A7-B71A-7D03AA71627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F1A4E08-4385-4127-8518-8E58DFDFCD6A}"/>
+  <xr:revisionPtr revIDLastSave="635" documentId="8_{7C2E463B-3A4A-44A7-B71A-7D03AA71627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FC9C159-C0AE-4CC0-9F7D-C3EE2C53D69E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4F63E78-1954-4528-8CDF-71AD70FA9EA6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="fome" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fome!$A$1:$I$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fome!$A$1:$K$193</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -111,6 +111,12 @@
   <si>
     <t>rate</t>
   </si>
+  <si>
+    <t>percentbio</t>
+  </si>
+  <si>
+    <t>biored</t>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,6 +183,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AE591F-3B1E-4E51-8C16-30F3512DCEDB}">
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:K193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,14 +515,16 @@
     <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -541,8 +552,14 @@
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -570,8 +587,14 @@
       <c r="I2" s="2">
         <v>2.4820000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -595,8 +618,14 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -624,8 +653,14 @@
       <c r="I4" s="2">
         <v>2.2839999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -653,8 +688,14 @@
       <c r="I5" s="2">
         <v>2.6840000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -682,8 +723,14 @@
       <c r="I6" s="2">
         <v>3.4940000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -711,8 +758,16 @@
       <c r="I7" s="2">
         <v>1.9319999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="4">
+        <f t="shared" ref="J7:J49" si="0">I7/AVERAGE($I$2:$I$5)</f>
+        <v>0.77798657718120801</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" ref="K7:K49" si="1">1-(I7/AVERAGE($I$2:$I$5))</f>
+        <v>0.22201342281879199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -740,8 +795,16 @@
       <c r="I8" s="2">
         <v>1.925</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.77516778523489938</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.22483221476510062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -769,8 +832,16 @@
       <c r="I9" s="2">
         <v>2.2519999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.90684563758389247</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>9.3154362416107528E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -798,8 +869,14 @@
       <c r="I10" s="2">
         <v>3.5259999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -827,8 +904,14 @@
       <c r="I11" s="2">
         <v>3.0329999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -856,8 +939,16 @@
       <c r="I12" s="2">
         <v>1.6359999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.65879194630872473</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.34120805369127527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -885,8 +976,16 @@
       <c r="I13" s="2">
         <v>2.3010000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.92657718120805377</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>7.3422818791946232E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -914,8 +1013,16 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -943,8 +1050,16 @@
       <c r="I15" s="2">
         <v>0.59599999999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -972,8 +1087,14 @@
       <c r="I16" s="2">
         <v>2.6920000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1001,8 +1122,14 @@
       <c r="I17" s="2">
         <v>2.774</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1030,8 +1157,16 @@
       <c r="I18" s="2">
         <v>1.6870000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.67932885906040275</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.32067114093959725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1059,8 +1194,16 @@
       <c r="I19" s="2">
         <v>0.98099999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.39503355704697984</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.60496644295302016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1088,8 +1231,16 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1117,8 +1268,14 @@
       <c r="I21" s="2">
         <v>2.7730000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1146,8 +1303,16 @@
       <c r="I22" s="2">
         <v>0.64200000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25852348993288593</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.74147651006711413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1175,8 +1340,16 @@
       <c r="I23" s="2">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11919463087248321</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="1"/>
+        <v>0.88080536912751684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1204,8 +1377,16 @@
       <c r="I24" s="2">
         <v>2.3290000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93785234899328862</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="1"/>
+        <v>6.214765100671138E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1233,8 +1414,16 @@
       <c r="I25" s="2">
         <v>0.90300000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.3636241610738255</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="1"/>
+        <v>0.63637583892617444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1262,8 +1451,16 @@
       <c r="I26" s="2">
         <v>2.4390000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.98214765100671142</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="1"/>
+        <v>1.785234899328858E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1291,8 +1488,16 @@
       <c r="I27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1320,8 +1525,16 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1349,8 +1562,16 @@
       <c r="I29" s="2">
         <v>1.476</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5943624161073825</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="1"/>
+        <v>0.4056375838926175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1378,8 +1599,16 @@
       <c r="I30" s="2">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="4">
+        <f t="shared" si="0"/>
+        <v>4.550335570469799E-2</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="1"/>
+        <v>0.95449664429530201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1407,8 +1636,16 @@
       <c r="I31" s="2">
         <v>2.0619999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83033557046979856</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="1"/>
+        <v>0.16966442953020144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1436,8 +1673,16 @@
       <c r="I32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1465,8 +1710,16 @@
       <c r="I33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1494,8 +1747,16 @@
       <c r="I34" s="2">
         <v>1.571</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.63261744966442945</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="1"/>
+        <v>0.36738255033557055</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1523,8 +1784,16 @@
       <c r="I35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1552,8 +1821,16 @@
       <c r="I36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1581,8 +1858,16 @@
       <c r="I37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1610,8 +1895,16 @@
       <c r="I38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1639,8 +1932,16 @@
       <c r="I39" s="2">
         <v>0.46899999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18885906040268455</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="1"/>
+        <v>0.81114093959731548</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1668,8 +1969,16 @@
       <c r="I40" s="2">
         <v>0.14299999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="4">
+        <f t="shared" si="0"/>
+        <v>5.7583892617449658E-2</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="1"/>
+        <v>0.94241610738255033</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1697,8 +2006,16 @@
       <c r="I41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1726,8 +2043,16 @@
       <c r="I42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1755,8 +2080,16 @@
       <c r="I43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1784,8 +2117,16 @@
       <c r="I44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1813,8 +2154,16 @@
       <c r="I45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1842,8 +2191,16 @@
       <c r="I46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1871,8 +2228,16 @@
       <c r="I47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1900,8 +2265,16 @@
       <c r="I48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1929,8 +2302,16 @@
       <c r="I49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>93</v>
       </c>
@@ -1958,8 +2339,14 @@
       <c r="I50" s="2">
         <v>3.5880000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>94</v>
       </c>
@@ -1987,8 +2374,14 @@
       <c r="I51" s="2">
         <v>3.5579999999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="4">
+        <v>1</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>95</v>
       </c>
@@ -2016,8 +2409,14 @@
       <c r="I52" s="2">
         <v>3.8479999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>96</v>
       </c>
@@ -2045,8 +2444,14 @@
       <c r="I53" s="2">
         <v>3.2410000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>97</v>
       </c>
@@ -2074,8 +2479,16 @@
       <c r="I54" s="2">
         <v>2.6419999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="4">
+        <f>I54/AVERAGE($I$50:$I$53)</f>
+        <v>0.74239550403933963</v>
+      </c>
+      <c r="K54" s="4">
+        <f>1-(I54/AVERAGE($I$50:$I$53))</f>
+        <v>0.25760449596066037</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>98</v>
       </c>
@@ -2103,8 +2516,16 @@
       <c r="I55" s="2">
         <v>2.4790000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="4">
+        <f t="shared" ref="J55:J97" si="2">I55/AVERAGE($I$50:$I$53)</f>
+        <v>0.69659290481208291</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" ref="K55:K97" si="3">1-(I55/AVERAGE($I$50:$I$53))</f>
+        <v>0.30340709518791709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>99</v>
       </c>
@@ -2132,8 +2553,16 @@
       <c r="I56" s="2">
         <v>2.1269999999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="4">
+        <f t="shared" si="2"/>
+        <v>0.59768177028450997</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="3"/>
+        <v>0.40231822971549003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>100</v>
       </c>
@@ -2161,8 +2590,16 @@
       <c r="I57" s="2">
         <v>2.927</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="4">
+        <f t="shared" si="2"/>
+        <v>0.8224798033017211</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="3"/>
+        <v>0.1775201966982789</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>101</v>
       </c>
@@ -2190,8 +2627,16 @@
       <c r="I58" s="2">
         <v>3.3029999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="4">
+        <f t="shared" si="2"/>
+        <v>0.92813487881981038</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="3"/>
+        <v>7.1865121180189617E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>102</v>
       </c>
@@ -2219,8 +2664,16 @@
       <c r="I59" s="2">
         <v>2.1659999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="4">
+        <f t="shared" si="2"/>
+        <v>0.60864067439409908</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" si="3"/>
+        <v>0.39135932560590092</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>103</v>
       </c>
@@ -2248,8 +2701,16 @@
       <c r="I60" s="2">
         <v>2.4009999999999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="4">
+        <f t="shared" si="2"/>
+        <v>0.67467509659290481</v>
+      </c>
+      <c r="K60" s="4">
+        <f t="shared" si="3"/>
+        <v>0.32532490340709519</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>104</v>
       </c>
@@ -2277,8 +2738,16 @@
       <c r="I61" s="2">
         <v>2.431</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="4">
+        <f t="shared" si="2"/>
+        <v>0.68310502283105023</v>
+      </c>
+      <c r="K61" s="4">
+        <f t="shared" si="3"/>
+        <v>0.31689497716894977</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>105</v>
       </c>
@@ -2306,8 +2775,16 @@
       <c r="I62" s="2">
         <v>2.1309999999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="4">
+        <f t="shared" si="2"/>
+        <v>0.59880576044959599</v>
+      </c>
+      <c r="K62" s="4">
+        <f t="shared" si="3"/>
+        <v>0.40119423955040401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>106</v>
       </c>
@@ -2335,8 +2812,16 @@
       <c r="I63" s="2">
         <v>0.91900000000000004</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="4">
+        <f t="shared" si="2"/>
+        <v>0.25823674042852129</v>
+      </c>
+      <c r="K63" s="4">
+        <f t="shared" si="3"/>
+        <v>0.74176325957147871</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>107</v>
       </c>
@@ -2364,8 +2849,16 @@
       <c r="I64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>108</v>
       </c>
@@ -2393,8 +2886,16 @@
       <c r="I65" s="2">
         <v>0.97599999999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="4">
+        <f t="shared" si="2"/>
+        <v>0.27425360028099754</v>
+      </c>
+      <c r="K65" s="4">
+        <f t="shared" si="3"/>
+        <v>0.72574639971900246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>109</v>
       </c>
@@ -2422,8 +2923,16 @@
       <c r="I66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>110</v>
       </c>
@@ -2451,8 +2960,16 @@
       <c r="I67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>111</v>
       </c>
@@ -2480,8 +2997,16 @@
       <c r="I68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>112</v>
       </c>
@@ -2509,8 +3034,16 @@
       <c r="I69" s="2">
         <v>0.32600000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="4">
+        <f t="shared" si="2"/>
+        <v>9.1605198454513537E-2</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" si="3"/>
+        <v>0.90839480154548646</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>113</v>
       </c>
@@ -2538,8 +3071,16 @@
       <c r="I70" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>114</v>
       </c>
@@ -2567,8 +3108,16 @@
       <c r="I71" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>115</v>
       </c>
@@ -2596,8 +3145,16 @@
       <c r="I72" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>116</v>
       </c>
@@ -2625,8 +3182,16 @@
       <c r="I73" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>117</v>
       </c>
@@ -2654,8 +3219,16 @@
       <c r="I74" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>118</v>
       </c>
@@ -2683,8 +3256,16 @@
       <c r="I75" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>119</v>
       </c>
@@ -2712,8 +3293,16 @@
       <c r="I76" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>120</v>
       </c>
@@ -2741,8 +3330,16 @@
       <c r="I77" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>121</v>
       </c>
@@ -2770,8 +3367,16 @@
       <c r="I78" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>122</v>
       </c>
@@ -2799,8 +3404,16 @@
       <c r="I79" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>123</v>
       </c>
@@ -2828,8 +3441,16 @@
       <c r="I80" s="2">
         <v>0.40200000000000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="4">
+        <f t="shared" si="2"/>
+        <v>0.11296101159114859</v>
+      </c>
+      <c r="K80" s="4">
+        <f t="shared" si="3"/>
+        <v>0.88703898840885143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>124</v>
       </c>
@@ -2857,8 +3478,16 @@
       <c r="I81" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>125</v>
       </c>
@@ -2886,8 +3515,16 @@
       <c r="I82" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>126</v>
       </c>
@@ -2915,8 +3552,16 @@
       <c r="I83" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>127</v>
       </c>
@@ -2944,8 +3589,16 @@
       <c r="I84" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>128</v>
       </c>
@@ -2973,8 +3626,16 @@
       <c r="I85" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>129</v>
       </c>
@@ -3002,8 +3663,16 @@
       <c r="I86" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>130</v>
       </c>
@@ -3031,8 +3700,16 @@
       <c r="I87" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>131</v>
       </c>
@@ -3060,8 +3737,16 @@
       <c r="I88" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>132</v>
       </c>
@@ -3089,8 +3774,16 @@
       <c r="I89" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>133</v>
       </c>
@@ -3118,8 +3811,16 @@
       <c r="I90" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>134</v>
       </c>
@@ -3147,8 +3848,16 @@
       <c r="I91" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>135</v>
       </c>
@@ -3176,8 +3885,16 @@
       <c r="I92" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>136</v>
       </c>
@@ -3205,8 +3922,16 @@
       <c r="I93" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K93" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>137</v>
       </c>
@@ -3234,8 +3959,16 @@
       <c r="I94" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K94" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>138</v>
       </c>
@@ -3263,8 +3996,16 @@
       <c r="I95" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K95" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>139</v>
       </c>
@@ -3292,8 +4033,16 @@
       <c r="I96" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>140</v>
       </c>
@@ -3321,8 +4070,16 @@
       <c r="I97" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>1</v>
       </c>
@@ -3350,8 +4107,14 @@
       <c r="I98" s="2">
         <v>3.0089999999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="4">
+        <v>1</v>
+      </c>
+      <c r="K98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>2</v>
       </c>
@@ -3379,8 +4142,14 @@
       <c r="I99" s="2">
         <v>3.8889999999999998</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="4">
+        <v>1</v>
+      </c>
+      <c r="K99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>3</v>
       </c>
@@ -3408,8 +4177,14 @@
       <c r="I100" s="2">
         <v>3.6880000000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="4">
+        <v>1</v>
+      </c>
+      <c r="K100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>4</v>
       </c>
@@ -3437,8 +4212,14 @@
       <c r="I101" s="2">
         <v>2.871</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="4">
+        <v>1</v>
+      </c>
+      <c r="K101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>5</v>
       </c>
@@ -3466,8 +4247,16 @@
       <c r="I102" s="2">
         <v>3.036</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="4">
+        <f>I102/AVERAGE($I$98:$I$101)</f>
+        <v>0.9024299621015085</v>
+      </c>
+      <c r="K102" s="4">
+        <f>1-(I102/AVERAGE($I$98:$I$101))</f>
+        <v>9.7570037898491502E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>6</v>
       </c>
@@ -3495,8 +4284,16 @@
       <c r="I103" s="2">
         <v>3.0289999999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="4">
+        <f t="shared" ref="J103:J145" si="4">I103/AVERAGE($I$98:$I$101)</f>
+        <v>0.90034926060786202</v>
+      </c>
+      <c r="K103" s="4">
+        <f t="shared" ref="K103:K145" si="5">1-(I103/AVERAGE($I$98:$I$101))</f>
+        <v>9.9650739392137977E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>7</v>
       </c>
@@ -3524,8 +4321,14 @@
       <c r="I104" s="2">
         <v>3.4129999999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="4">
+        <v>1</v>
+      </c>
+      <c r="K104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>8</v>
       </c>
@@ -3553,8 +4356,16 @@
       <c r="I105" s="2">
         <v>2.3969999999999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="4">
+        <f t="shared" si="4"/>
+        <v>0.71249164003864152</v>
+      </c>
+      <c r="K105" s="4">
+        <f t="shared" si="5"/>
+        <v>0.28750835996135848</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>9</v>
       </c>
@@ -3582,8 +4393,14 @@
       <c r="I106" s="2">
         <v>3.7949999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="4">
+        <v>1</v>
+      </c>
+      <c r="K106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>10</v>
       </c>
@@ -3611,8 +4428,14 @@
       <c r="I107" s="2">
         <v>3.528</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="4">
+        <v>1</v>
+      </c>
+      <c r="K107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>11</v>
       </c>
@@ -3640,8 +4463,16 @@
       <c r="I108" s="2">
         <v>2.0920000000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="4">
+        <f t="shared" si="4"/>
+        <v>0.62183250352976149</v>
+      </c>
+      <c r="K108" s="4">
+        <f t="shared" si="5"/>
+        <v>0.37816749647023851</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>12</v>
       </c>
@@ -3669,8 +4500,16 @@
       <c r="I109" s="2">
         <v>2.004</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="4">
+        <f t="shared" si="4"/>
+        <v>0.59567511332392065</v>
+      </c>
+      <c r="K109" s="4">
+        <f t="shared" si="5"/>
+        <v>0.40432488667607935</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>13</v>
       </c>
@@ -3698,8 +4537,16 @@
       <c r="I110" s="2">
         <v>1.4790000000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="4">
+        <f t="shared" si="4"/>
+        <v>0.43962250130043845</v>
+      </c>
+      <c r="K110" s="4">
+        <f t="shared" si="5"/>
+        <v>0.56037749869956155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>14</v>
       </c>
@@ -3727,8 +4574,14 @@
       <c r="I111" s="2">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="4">
+        <v>1</v>
+      </c>
+      <c r="K111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>15</v>
       </c>
@@ -3756,8 +4609,16 @@
       <c r="I112" s="2">
         <v>1.1679999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="4">
+        <f t="shared" si="4"/>
+        <v>0.34717990636843277</v>
+      </c>
+      <c r="K112" s="4">
+        <f t="shared" si="5"/>
+        <v>0.65282009363156723</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>16</v>
       </c>
@@ -3785,8 +4646,16 @@
       <c r="I113" s="2">
         <v>2.5219999999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="4">
+        <f t="shared" si="4"/>
+        <v>0.74964702385375626</v>
+      </c>
+      <c r="K113" s="4">
+        <f t="shared" si="5"/>
+        <v>0.25035297614624374</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>17</v>
       </c>
@@ -3814,8 +4683,16 @@
       <c r="I114" s="2">
         <v>2.76</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="4">
+        <f t="shared" si="4"/>
+        <v>0.82039087463773486</v>
+      </c>
+      <c r="K114" s="4">
+        <f t="shared" si="5"/>
+        <v>0.17960912536226514</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>18</v>
       </c>
@@ -3843,8 +4720,16 @@
       <c r="I115" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K115" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>19</v>
       </c>
@@ -3872,8 +4757,16 @@
       <c r="I116" s="2">
         <v>3.359</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="4">
+        <f t="shared" si="4"/>
+        <v>0.99843947387976517</v>
+      </c>
+      <c r="K116" s="4">
+        <f t="shared" si="5"/>
+        <v>1.5605261202348286E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>20</v>
       </c>
@@ -3901,8 +4794,16 @@
       <c r="I117" s="2">
         <v>2.3479999999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="4">
+        <f t="shared" si="4"/>
+        <v>0.69792672958311652</v>
+      </c>
+      <c r="K117" s="4">
+        <f t="shared" si="5"/>
+        <v>0.30207327041688348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>21</v>
       </c>
@@ -3930,8 +4831,16 @@
       <c r="I118" s="2">
         <v>2.2970000000000002</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="4">
+        <f t="shared" si="4"/>
+        <v>0.68276733298654979</v>
+      </c>
+      <c r="K118" s="4">
+        <f t="shared" si="5"/>
+        <v>0.31723266701345021</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>22</v>
       </c>
@@ -3959,8 +4868,16 @@
       <c r="I119" s="2">
         <v>2.4380000000000002</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="4">
+        <f t="shared" si="4"/>
+        <v>0.72467860592999922</v>
+      </c>
+      <c r="K119" s="4">
+        <f t="shared" si="5"/>
+        <v>0.27532139407000078</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>23</v>
       </c>
@@ -3988,8 +4905,16 @@
       <c r="I120" s="2">
         <v>1.788</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="4">
+        <f t="shared" si="4"/>
+        <v>0.53147061009140217</v>
+      </c>
+      <c r="K120" s="4">
+        <f t="shared" si="5"/>
+        <v>0.46852938990859783</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>24</v>
       </c>
@@ -4017,8 +4942,16 @@
       <c r="I121" s="2">
         <v>2.1379999999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="4">
+        <f t="shared" si="4"/>
+        <v>0.6355056847737236</v>
+      </c>
+      <c r="K121" s="4">
+        <f t="shared" si="5"/>
+        <v>0.3644943152262764</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>25</v>
       </c>
@@ -4046,8 +4979,16 @@
       <c r="I122" s="2">
         <v>0.17100000000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0828565059077062E-2</v>
+      </c>
+      <c r="K122" s="4">
+        <f t="shared" si="5"/>
+        <v>0.94917143494092293</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>26</v>
       </c>
@@ -4075,8 +5016,16 @@
       <c r="I123" s="2">
         <v>0.82899999999999996</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="4">
+        <f t="shared" si="4"/>
+        <v>0.2464145054618414</v>
+      </c>
+      <c r="K123" s="4">
+        <f t="shared" si="5"/>
+        <v>0.7535854945381586</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>27</v>
       </c>
@@ -4104,8 +5053,16 @@
       <c r="I124" s="2">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="4">
+        <f t="shared" si="4"/>
+        <v>4.5775432860221441E-2</v>
+      </c>
+      <c r="K124" s="4">
+        <f t="shared" si="5"/>
+        <v>0.95422456713977855</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>28</v>
       </c>
@@ -4133,8 +5090,16 @@
       <c r="I125" s="2">
         <v>2.415</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="4">
+        <f t="shared" si="4"/>
+        <v>0.71784201530801806</v>
+      </c>
+      <c r="K125" s="4">
+        <f t="shared" si="5"/>
+        <v>0.28215798469198194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>29</v>
       </c>
@@ -4162,8 +5127,16 @@
       <c r="I126" s="2">
         <v>0.14599999999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="4">
+        <f t="shared" si="4"/>
+        <v>4.3397488296054096E-2</v>
+      </c>
+      <c r="K126" s="4">
+        <f t="shared" si="5"/>
+        <v>0.95660251170394595</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>30</v>
       </c>
@@ -4191,8 +5164,16 @@
       <c r="I127" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K127" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>31</v>
       </c>
@@ -4220,8 +5201,16 @@
       <c r="I128" s="2">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="4">
+        <f t="shared" si="4"/>
+        <v>0.13673181243962251</v>
+      </c>
+      <c r="K128" s="4">
+        <f t="shared" si="5"/>
+        <v>0.86326818756037749</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>32</v>
       </c>
@@ -4249,8 +5238,16 @@
       <c r="I129" s="2">
         <v>0.115</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="4">
+        <f t="shared" si="4"/>
+        <v>3.4182953109905628E-2</v>
+      </c>
+      <c r="K129" s="4">
+        <f t="shared" si="5"/>
+        <v>0.9658170468900944</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>33</v>
       </c>
@@ -4278,8 +5275,16 @@
       <c r="I130" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K130" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>34</v>
       </c>
@@ -4307,8 +5312,16 @@
       <c r="I131" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K131" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>35</v>
       </c>
@@ -4336,8 +5349,16 @@
       <c r="I132" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K132" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>36</v>
       </c>
@@ -4365,8 +5386,16 @@
       <c r="I133" s="2">
         <v>0.14899999999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="4">
+        <f t="shared" si="4"/>
+        <v>4.428921750761685E-2</v>
+      </c>
+      <c r="K133" s="4">
+        <f t="shared" si="5"/>
+        <v>0.95571078249238317</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>37</v>
       </c>
@@ -4394,8 +5423,16 @@
       <c r="I134" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K134" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>38</v>
       </c>
@@ -4423,8 +5460,16 @@
       <c r="I135" s="2">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5669168462510212E-2</v>
+      </c>
+      <c r="K135" s="4">
+        <f t="shared" si="5"/>
+        <v>0.96433083153748977</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>39</v>
       </c>
@@ -4452,8 +5497,16 @@
       <c r="I136" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K136" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>40</v>
       </c>
@@ -4481,8 +5534,16 @@
       <c r="I137" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K137" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>41</v>
       </c>
@@ -4510,8 +5571,16 @@
       <c r="I138" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K138" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>42</v>
       </c>
@@ -4539,8 +5608,16 @@
       <c r="I139" s="2">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="4">
+        <f t="shared" si="4"/>
+        <v>2.1401501077506126E-2</v>
+      </c>
+      <c r="K139" s="4">
+        <f t="shared" si="5"/>
+        <v>0.97859849892249384</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>43</v>
       </c>
@@ -4568,8 +5645,16 @@
       <c r="I140" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K140" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>44</v>
       </c>
@@ -4597,8 +5682,16 @@
       <c r="I141" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K141" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>45</v>
       </c>
@@ -4626,8 +5719,16 @@
       <c r="I142" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K142" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>46</v>
       </c>
@@ -4655,8 +5756,16 @@
       <c r="I143" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K143" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>47</v>
       </c>
@@ -4684,8 +5793,16 @@
       <c r="I144" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K144" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>48</v>
       </c>
@@ -4713,8 +5830,16 @@
       <c r="I145" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K145" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>93</v>
       </c>
@@ -4742,8 +5867,14 @@
       <c r="I146" s="2">
         <v>3.3170000000000002</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="4">
+        <v>1</v>
+      </c>
+      <c r="K146" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>94</v>
       </c>
@@ -4771,8 +5902,14 @@
       <c r="I147" s="2">
         <v>2.677</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="4">
+        <v>1</v>
+      </c>
+      <c r="K147" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>95</v>
       </c>
@@ -4800,8 +5937,14 @@
       <c r="I148" s="2">
         <v>1.9610000000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="4">
+        <v>1</v>
+      </c>
+      <c r="K148" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>96</v>
       </c>
@@ -4829,8 +5972,14 @@
       <c r="I149" s="2">
         <v>2.5030000000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="4">
+        <v>1</v>
+      </c>
+      <c r="K149" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>97</v>
       </c>
@@ -4858,8 +6007,16 @@
       <c r="I150" s="2">
         <v>1.5009999999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="4">
+        <f>I150/AVERAGE($I$146:$I$149)</f>
+        <v>0.57410594759992351</v>
+      </c>
+      <c r="K150" s="4">
+        <f>1-(I150/AVERAGE($I$146:$I$149))</f>
+        <v>0.42589405240007649</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>98</v>
       </c>
@@ -4887,8 +6044,16 @@
       <c r="I151" s="2">
         <v>1.413</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="4">
+        <f t="shared" ref="J151:J193" si="6">I151/AVERAGE($I$146:$I$149)</f>
+        <v>0.54044750430292599</v>
+      </c>
+      <c r="K151" s="4">
+        <f t="shared" ref="K151:K193" si="7">1-(I151/AVERAGE($I$146:$I$149))</f>
+        <v>0.45955249569707401</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>99</v>
       </c>
@@ -4916,8 +6081,16 @@
       <c r="I152" s="2">
         <v>1.8939999999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="4">
+        <f t="shared" si="6"/>
+        <v>0.72442149550583279</v>
+      </c>
+      <c r="K152" s="4">
+        <f t="shared" si="7"/>
+        <v>0.27557850449416721</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>100</v>
       </c>
@@ -4945,8 +6118,16 @@
       <c r="I153" s="2">
         <v>1.3280000000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="4">
+        <f t="shared" si="6"/>
+        <v>0.50793650793650791</v>
+      </c>
+      <c r="K153" s="4">
+        <f t="shared" si="7"/>
+        <v>0.49206349206349209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>101</v>
       </c>
@@ -4974,8 +6155,16 @@
       <c r="I154" s="2">
         <v>2.1669999999999998</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="4">
+        <f t="shared" si="6"/>
+        <v>0.82883916618856368</v>
+      </c>
+      <c r="K154" s="4">
+        <f t="shared" si="7"/>
+        <v>0.17116083381143632</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>102</v>
       </c>
@@ -5003,8 +6192,16 @@
       <c r="I155" s="2">
         <v>1.7769999999999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" s="4">
+        <f t="shared" si="6"/>
+        <v>0.67967106521323384</v>
+      </c>
+      <c r="K155" s="4">
+        <f t="shared" si="7"/>
+        <v>0.32032893478676616</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>103</v>
       </c>
@@ -5032,8 +6229,16 @@
       <c r="I156" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K156" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>104</v>
       </c>
@@ -5061,8 +6266,16 @@
       <c r="I157" s="2">
         <v>2.5939999999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="4">
+        <f t="shared" si="6"/>
+        <v>0.99215911264104029</v>
+      </c>
+      <c r="K157" s="4">
+        <f t="shared" si="7"/>
+        <v>7.8408873589597139E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>105</v>
       </c>
@@ -5090,8 +6303,16 @@
       <c r="I158" s="2">
         <v>1.321</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="4">
+        <f t="shared" si="6"/>
+        <v>0.5052591317651558</v>
+      </c>
+      <c r="K158" s="4">
+        <f t="shared" si="7"/>
+        <v>0.4947408682348442</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>106</v>
       </c>
@@ -5119,8 +6340,16 @@
       <c r="I159" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K159" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>107</v>
       </c>
@@ -5148,8 +6377,16 @@
       <c r="I160" s="2">
         <v>0.94099999999999995</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="4">
+        <f t="shared" si="6"/>
+        <v>0.35991585389175745</v>
+      </c>
+      <c r="K160" s="4">
+        <f t="shared" si="7"/>
+        <v>0.64008414610824249</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>108</v>
       </c>
@@ -5177,8 +6414,16 @@
       <c r="I161" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K161" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>109</v>
       </c>
@@ -5206,8 +6451,16 @@
       <c r="I162" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K162" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>110</v>
       </c>
@@ -5235,8 +6488,16 @@
       <c r="I163" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K163" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>111</v>
       </c>
@@ -5264,8 +6525,16 @@
       <c r="I164" s="2">
         <v>0.45400000000000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="4">
+        <f t="shared" si="6"/>
+        <v>0.17364696882769173</v>
+      </c>
+      <c r="K164" s="4">
+        <f t="shared" si="7"/>
+        <v>0.82635303117230829</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>112</v>
       </c>
@@ -5293,8 +6562,16 @@
       <c r="I165" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K165" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>113</v>
       </c>
@@ -5322,8 +6599,16 @@
       <c r="I166" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K166" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>114</v>
       </c>
@@ -5351,8 +6636,16 @@
       <c r="I167" s="2">
         <v>0.19400000000000001</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="4">
+        <f t="shared" si="6"/>
+        <v>7.4201568177471797E-2</v>
+      </c>
+      <c r="K167" s="4">
+        <f t="shared" si="7"/>
+        <v>0.92579843182252819</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>115</v>
       </c>
@@ -5380,8 +6673,16 @@
       <c r="I168" s="2">
         <v>0.86899999999999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="4">
+        <f t="shared" si="6"/>
+        <v>0.33237712755785043</v>
+      </c>
+      <c r="K168" s="4">
+        <f t="shared" si="7"/>
+        <v>0.66762287244214957</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>116</v>
       </c>
@@ -5409,8 +6710,16 @@
       <c r="I169" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K169" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>117</v>
       </c>
@@ -5438,8 +6747,16 @@
       <c r="I170" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K170" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>118</v>
       </c>
@@ -5467,8 +6784,16 @@
       <c r="I171" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K171" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>119</v>
       </c>
@@ -5496,8 +6821,16 @@
       <c r="I172" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K172" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>120</v>
       </c>
@@ -5525,8 +6858,16 @@
       <c r="I173" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K173" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>121</v>
       </c>
@@ -5554,8 +6895,16 @@
       <c r="I174" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K174" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>122</v>
       </c>
@@ -5583,8 +6932,16 @@
       <c r="I175" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K175" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>123</v>
       </c>
@@ -5612,8 +6969,16 @@
       <c r="I176" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K176" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>124</v>
       </c>
@@ -5641,8 +7006,16 @@
       <c r="I177" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K177" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>125</v>
       </c>
@@ -5670,8 +7043,16 @@
       <c r="I178" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K178" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>126</v>
       </c>
@@ -5699,8 +7080,16 @@
       <c r="I179" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K179" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>127</v>
       </c>
@@ -5728,8 +7117,16 @@
       <c r="I180" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K180" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>128</v>
       </c>
@@ -5757,8 +7154,16 @@
       <c r="I181" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K181" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>129</v>
       </c>
@@ -5786,8 +7191,16 @@
       <c r="I182" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K182" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>130</v>
       </c>
@@ -5815,8 +7228,16 @@
       <c r="I183" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K183" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>131</v>
       </c>
@@ -5844,8 +7265,16 @@
       <c r="I184" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K184" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>132</v>
       </c>
@@ -5873,8 +7302,16 @@
       <c r="I185" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K185" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>133</v>
       </c>
@@ -5902,8 +7339,16 @@
       <c r="I186" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K186" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>134</v>
       </c>
@@ -5931,8 +7376,16 @@
       <c r="I187" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K187" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>135</v>
       </c>
@@ -5960,8 +7413,16 @@
       <c r="I188" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K188" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>136</v>
       </c>
@@ -5989,8 +7450,16 @@
       <c r="I189" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K189" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>137</v>
       </c>
@@ -6018,8 +7487,16 @@
       <c r="I190" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K190" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>138</v>
       </c>
@@ -6047,8 +7524,16 @@
       <c r="I191" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K191" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>139</v>
       </c>
@@ -6076,8 +7561,16 @@
       <c r="I192" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K192" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>140</v>
       </c>
@@ -6105,9 +7598,17 @@
       <c r="I193" s="2">
         <v>0</v>
       </c>
+      <c r="J193" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K193" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I193" xr:uid="{A6AE591F-3B1E-4E51-8C16-30F3512DCEDB}"/>
+  <autoFilter ref="A1:K193" xr:uid="{A6AE591F-3B1E-4E51-8C16-30F3512DCEDB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Fomesafen/Data Sheet_A92 Fomesafen POST.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Fomesafen/Data Sheet_A92 Fomesafen POST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Bill Stangel_A92/2023/POST/Fomesafen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="635" documentId="8_{7C2E463B-3A4A-44A7-B71A-7D03AA71627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FC9C159-C0AE-4CC0-9F7D-C3EE2C53D69E}"/>
+  <xr:revisionPtr revIDLastSave="654" documentId="8_{7C2E463B-3A4A-44A7-B71A-7D03AA71627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA5FE6FD-3B82-4BD7-B4E9-2FEB75A921E1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4F63E78-1954-4528-8CDF-71AD70FA9EA6}"/>
   </bookViews>
@@ -203,6 +203,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,7 +509,7 @@
   <dimension ref="A1:K193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +524,7 @@
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -618,12 +622,8 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
